--- a/venv/assets/postsArabic.xlsx
+++ b/venv/assets/postsArabic.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ask-Banky-Classifier\venv\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D2F51DE3-61BD-41FB-A218-B36B0D2771D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C18A54-C0AC-493C-90FF-D5A4DA39CFB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="720" yWindow="2784" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="postsArabic" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="380">
   <si>
     <t>يوم الخميس اللي فات البنك المركزي خفض الفائدة 0.5% ↙️ وبالتالي البنوك بدأت تنفيذ القرار وتخفيض الفائدة على المنتجات البنكية 🏛 واللي منها الشهادات 📃\n\nلو بتدور على أسعار الفوائد على الشهادات المتغيرة، هتلاقيهم في تقرير النهارده في 21 بنك، واللي من خلاله هتقارن وتوصل لأفضل اختيار😎\n📎https://bankygate.com/15099</t>
   </si>
@@ -1154,12 +1154,18 @@
   </si>
   <si>
     <t>تحويلات</t>
+  </si>
+  <si>
+    <t>الذهب</t>
+  </si>
+  <si>
+    <t>معلومة</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2001,11 +2007,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="C91" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.3984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2726,6 +2732,9 @@
       <c r="C51" t="s">
         <v>102</v>
       </c>
+      <c r="D51" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
@@ -2737,6 +2746,9 @@
       <c r="C52" t="s">
         <v>104</v>
       </c>
+      <c r="D52" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
@@ -2748,6 +2760,9 @@
       <c r="C53" t="s">
         <v>106</v>
       </c>
+      <c r="D53" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
@@ -2759,6 +2774,9 @@
       <c r="C54" t="s">
         <v>108</v>
       </c>
+      <c r="D54" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
@@ -2770,6 +2788,9 @@
       <c r="C55" t="s">
         <v>110</v>
       </c>
+      <c r="D55" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
@@ -2781,6 +2802,9 @@
       <c r="C56" t="s">
         <v>112</v>
       </c>
+      <c r="D56" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
@@ -2792,6 +2816,9 @@
       <c r="C57" t="s">
         <v>114</v>
       </c>
+      <c r="D57" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
@@ -2803,6 +2830,9 @@
       <c r="C58" t="s">
         <v>116</v>
       </c>
+      <c r="D58" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
@@ -2814,6 +2844,9 @@
       <c r="C59" t="s">
         <v>118</v>
       </c>
+      <c r="D59" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
@@ -2825,6 +2858,9 @@
       <c r="C60" t="s">
         <v>120</v>
       </c>
+      <c r="D60" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
@@ -2836,6 +2872,9 @@
       <c r="C61" t="s">
         <v>122</v>
       </c>
+      <c r="D61" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
@@ -2847,6 +2886,9 @@
       <c r="C62" t="s">
         <v>124</v>
       </c>
+      <c r="D62" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
@@ -2858,6 +2900,9 @@
       <c r="C63" t="s">
         <v>126</v>
       </c>
+      <c r="D63" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
@@ -2869,8 +2914,11 @@
       <c r="C64" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -2880,8 +2928,11 @@
       <c r="C65" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -2891,8 +2942,11 @@
       <c r="C66" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -2902,8 +2956,11 @@
       <c r="C67" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -2913,8 +2970,11 @@
       <c r="C68" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -2924,8 +2984,11 @@
       <c r="C69" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -2935,8 +2998,11 @@
       <c r="C70" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>71</v>
       </c>
@@ -2946,8 +3012,11 @@
       <c r="C71" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>72</v>
       </c>
@@ -2957,8 +3026,11 @@
       <c r="C72" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -2968,8 +3040,11 @@
       <c r="C73" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>74</v>
       </c>
@@ -2979,8 +3054,11 @@
       <c r="C74" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -2990,8 +3068,11 @@
       <c r="C75" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76</v>
       </c>
@@ -3001,8 +3082,11 @@
       <c r="C76" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -3012,8 +3096,11 @@
       <c r="C77" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78</v>
       </c>
@@ -3023,8 +3110,11 @@
       <c r="C78" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -3034,8 +3124,11 @@
       <c r="C79" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3045,8 +3138,11 @@
       <c r="C80" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>81</v>
       </c>
@@ -3056,8 +3152,11 @@
       <c r="C81" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>82</v>
       </c>
@@ -3067,8 +3166,11 @@
       <c r="C82" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>83</v>
       </c>
@@ -3078,8 +3180,11 @@
       <c r="C83" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -3089,8 +3194,11 @@
       <c r="C84" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85</v>
       </c>
@@ -3100,8 +3208,11 @@
       <c r="C85" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -3111,8 +3222,11 @@
       <c r="C86" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>87</v>
       </c>
@@ -3122,16 +3236,22 @@
       <c r="C87" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>88</v>
       </c>
       <c r="C88" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>89</v>
       </c>
@@ -3141,8 +3261,11 @@
       <c r="C89" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -3152,8 +3275,11 @@
       <c r="C90" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
@@ -3163,8 +3289,11 @@
       <c r="C91" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>92</v>
       </c>
@@ -3174,8 +3303,11 @@
       <c r="C92" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>93</v>
       </c>
@@ -3185,8 +3317,11 @@
       <c r="C93" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -3196,8 +3331,11 @@
       <c r="C94" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>95</v>
       </c>
@@ -3207,8 +3345,11 @@
       <c r="C95" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96</v>
       </c>
@@ -3218,8 +3359,11 @@
       <c r="C96" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -3229,8 +3373,11 @@
       <c r="C97" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -3240,8 +3387,11 @@
       <c r="C98" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -3251,8 +3401,11 @@
       <c r="C99" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
@@ -3262,8 +3415,11 @@
       <c r="C100" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>101</v>
       </c>
@@ -3274,7 +3430,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>102</v>
       </c>
@@ -3285,7 +3441,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>103</v>
       </c>
@@ -3296,7 +3452,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>104</v>
       </c>
@@ -3307,7 +3463,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>105</v>
       </c>
@@ -3318,7 +3474,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>106</v>
       </c>
@@ -3329,7 +3485,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>107</v>
       </c>
@@ -3340,7 +3496,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>108</v>
       </c>
@@ -3351,7 +3507,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>109</v>
       </c>
@@ -3362,7 +3518,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>110</v>
       </c>
@@ -3373,7 +3529,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>111</v>
       </c>
@@ -3384,7 +3540,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>112</v>
       </c>

--- a/venv/assets/postsArabic.xlsx
+++ b/venv/assets/postsArabic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ask-Banky-Classifier\venv\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C18A54-C0AC-493C-90FF-D5A4DA39CFB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56633E6-2127-435F-AAC2-BA304D2E9994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="2784" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="1608" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="postsArabic" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="380">
   <si>
     <t>يوم الخميس اللي فات البنك المركزي خفض الفائدة 0.5% ↙️ وبالتالي البنوك بدأت تنفيذ القرار وتخفيض الفائدة على المنتجات البنكية 🏛 واللي منها الشهادات 📃\n\nلو بتدور على أسعار الفوائد على الشهادات المتغيرة، هتلاقيهم في تقرير النهارده في 21 بنك، واللي من خلاله هتقارن وتوصل لأفضل اختيار😎\n📎https://bankygate.com/15099</t>
   </si>
@@ -2010,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C91" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="C142" workbookViewId="0">
+      <selection activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.3984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3429,6 +3429,9 @@
       <c r="C101" t="s">
         <v>193</v>
       </c>
+      <c r="D101" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
@@ -3440,6 +3443,9 @@
       <c r="C102" t="s">
         <v>112</v>
       </c>
+      <c r="D102" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
@@ -3451,6 +3457,9 @@
       <c r="C103" t="s">
         <v>196</v>
       </c>
+      <c r="D103" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
@@ -3462,6 +3471,9 @@
       <c r="C104" t="s">
         <v>198</v>
       </c>
+      <c r="D104" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
@@ -3473,6 +3485,9 @@
       <c r="C105" t="s">
         <v>200</v>
       </c>
+      <c r="D105" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
@@ -3484,6 +3499,9 @@
       <c r="C106" t="s">
         <v>202</v>
       </c>
+      <c r="D106" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
@@ -3495,6 +3513,9 @@
       <c r="C107" t="s">
         <v>28</v>
       </c>
+      <c r="D107" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
@@ -3506,6 +3527,9 @@
       <c r="C108" t="s">
         <v>205</v>
       </c>
+      <c r="D108" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
@@ -3517,6 +3541,9 @@
       <c r="C109" t="s">
         <v>207</v>
       </c>
+      <c r="D109" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
@@ -3528,6 +3555,9 @@
       <c r="C110" t="s">
         <v>209</v>
       </c>
+      <c r="D110" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
@@ -3539,6 +3569,9 @@
       <c r="C111" t="s">
         <v>211</v>
       </c>
+      <c r="D111" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
@@ -3550,8 +3583,11 @@
       <c r="C112" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>113</v>
       </c>
@@ -3561,8 +3597,11 @@
       <c r="C113" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>114</v>
       </c>
@@ -3572,8 +3611,11 @@
       <c r="C114" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>115</v>
       </c>
@@ -3583,8 +3625,11 @@
       <c r="C115" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>116</v>
       </c>
@@ -3594,8 +3639,11 @@
       <c r="C116" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>117</v>
       </c>
@@ -3605,8 +3653,11 @@
       <c r="C117" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>118</v>
       </c>
@@ -3616,8 +3667,11 @@
       <c r="C118" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>119</v>
       </c>
@@ -3627,8 +3681,11 @@
       <c r="C119" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>120</v>
       </c>
@@ -3638,8 +3695,11 @@
       <c r="C120" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>121</v>
       </c>
@@ -3649,8 +3709,11 @@
       <c r="C121" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>122</v>
       </c>
@@ -3660,8 +3723,11 @@
       <c r="C122" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>123</v>
       </c>
@@ -3671,8 +3737,11 @@
       <c r="C123" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>124</v>
       </c>
@@ -3682,8 +3751,11 @@
       <c r="C124" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>125</v>
       </c>
@@ -3693,8 +3765,11 @@
       <c r="C125" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>126</v>
       </c>
@@ -3704,8 +3779,11 @@
       <c r="C126" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>127</v>
       </c>
@@ -3715,8 +3793,11 @@
       <c r="C127" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>128</v>
       </c>
@@ -3726,8 +3807,11 @@
       <c r="C128" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>129</v>
       </c>
@@ -3737,8 +3821,11 @@
       <c r="C129" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>130</v>
       </c>
@@ -3748,8 +3835,11 @@
       <c r="C130" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>131</v>
       </c>
@@ -3759,8 +3849,11 @@
       <c r="C131" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>132</v>
       </c>
@@ -3770,8 +3863,11 @@
       <c r="C132" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>133</v>
       </c>
@@ -3781,8 +3877,11 @@
       <c r="C133" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>134</v>
       </c>
@@ -3792,8 +3891,11 @@
       <c r="C134" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>135</v>
       </c>
@@ -3803,8 +3905,11 @@
       <c r="C135" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>136</v>
       </c>
@@ -3814,8 +3919,11 @@
       <c r="C136" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>137</v>
       </c>
@@ -3825,8 +3933,11 @@
       <c r="C137" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>138</v>
       </c>
@@ -3836,8 +3947,11 @@
       <c r="C138" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>139</v>
       </c>
@@ -3847,8 +3961,11 @@
       <c r="C139" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D139" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>140</v>
       </c>
@@ -3858,8 +3975,11 @@
       <c r="C140" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D140" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>141</v>
       </c>
@@ -3869,8 +3989,11 @@
       <c r="C141" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>142</v>
       </c>
@@ -3880,8 +4003,11 @@
       <c r="C142" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D142" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>143</v>
       </c>
@@ -3891,8 +4017,11 @@
       <c r="C143" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D143" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>144</v>
       </c>
@@ -3902,8 +4031,11 @@
       <c r="C144" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D144" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>145</v>
       </c>
@@ -3913,8 +4045,11 @@
       <c r="C145" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D145" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>146</v>
       </c>
@@ -3924,8 +4059,11 @@
       <c r="C146" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D146" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>147</v>
       </c>
@@ -3935,8 +4073,11 @@
       <c r="C147" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D147" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>148</v>
       </c>
@@ -3946,8 +4087,11 @@
       <c r="C148" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D148" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>149</v>
       </c>
@@ -3957,8 +4101,11 @@
       <c r="C149" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D149" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>150</v>
       </c>
@@ -3968,8 +4115,11 @@
       <c r="C150" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D150" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>151</v>
       </c>
@@ -3980,7 +4130,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>152</v>
       </c>
@@ -3991,7 +4141,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>153</v>
       </c>
@@ -4002,7 +4152,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>154</v>
       </c>
@@ -4013,7 +4163,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>155</v>
       </c>
@@ -4024,7 +4174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>156</v>
       </c>
@@ -4035,7 +4185,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>157</v>
       </c>
@@ -4046,7 +4196,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>158</v>
       </c>
@@ -4057,7 +4207,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>159</v>
       </c>
@@ -4068,7 +4218,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>160</v>
       </c>

--- a/venv/assets/postsArabic.xlsx
+++ b/venv/assets/postsArabic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ask-Banky-Classifier\venv\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56633E6-2127-435F-AAC2-BA304D2E9994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97C71C4-47FB-4590-9A49-F4E2A338A112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1608" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="postsArabic" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="380">
   <si>
     <t>يوم الخميس اللي فات البنك المركزي خفض الفائدة 0.5% ↙️ وبالتالي البنوك بدأت تنفيذ القرار وتخفيض الفائدة على المنتجات البنكية 🏛 واللي منها الشهادات 📃\n\nلو بتدور على أسعار الفوائد على الشهادات المتغيرة، هتلاقيهم في تقرير النهارده في 21 بنك، واللي من خلاله هتقارن وتوصل لأفضل اختيار😎\n📎https://bankygate.com/15099</t>
   </si>
@@ -2010,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C142" workbookViewId="0">
-      <selection activeCell="F145" sqref="F145"/>
+    <sheetView tabSelected="1" topLeftCell="C190" workbookViewId="0">
+      <selection activeCell="E195" sqref="E195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.3984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4129,6 +4129,9 @@
       <c r="C151" t="s">
         <v>278</v>
       </c>
+      <c r="D151" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
@@ -4140,6 +4143,9 @@
       <c r="C152" t="s">
         <v>280</v>
       </c>
+      <c r="D152" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
@@ -4151,6 +4157,9 @@
       <c r="C153" t="s">
         <v>159</v>
       </c>
+      <c r="D153" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
@@ -4162,6 +4171,9 @@
       <c r="C154" t="s">
         <v>283</v>
       </c>
+      <c r="D154" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
@@ -4173,6 +4185,9 @@
       <c r="C155" t="s">
         <v>1</v>
       </c>
+      <c r="D155" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
@@ -4184,6 +4199,9 @@
       <c r="C156" t="s">
         <v>286</v>
       </c>
+      <c r="D156" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
@@ -4195,6 +4213,9 @@
       <c r="C157" t="s">
         <v>288</v>
       </c>
+      <c r="D157" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
@@ -4206,6 +4227,9 @@
       <c r="C158" t="s">
         <v>290</v>
       </c>
+      <c r="D158" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
@@ -4217,6 +4241,9 @@
       <c r="C159" t="s">
         <v>38</v>
       </c>
+      <c r="D159" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
@@ -4228,8 +4255,11 @@
       <c r="C160" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D160" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>161</v>
       </c>
@@ -4239,8 +4269,11 @@
       <c r="C161" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D161" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>162</v>
       </c>
@@ -4250,8 +4283,11 @@
       <c r="C162" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D162" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>163</v>
       </c>
@@ -4261,8 +4297,11 @@
       <c r="C163" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D163" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>164</v>
       </c>
@@ -4272,8 +4311,11 @@
       <c r="C164" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D164" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>165</v>
       </c>
@@ -4283,8 +4325,11 @@
       <c r="C165" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D165" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>166</v>
       </c>
@@ -4294,8 +4339,11 @@
       <c r="C166" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D166" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>167</v>
       </c>
@@ -4305,8 +4353,11 @@
       <c r="C167" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D167" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>168</v>
       </c>
@@ -4316,8 +4367,11 @@
       <c r="C168" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D168" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>169</v>
       </c>
@@ -4327,8 +4381,11 @@
       <c r="C169" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D169" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>170</v>
       </c>
@@ -4338,8 +4395,11 @@
       <c r="C170" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D170" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>171</v>
       </c>
@@ -4349,8 +4409,11 @@
       <c r="C171" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D171" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>172</v>
       </c>
@@ -4360,8 +4423,11 @@
       <c r="C172" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D172" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>173</v>
       </c>
@@ -4371,8 +4437,11 @@
       <c r="C173" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D173" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>174</v>
       </c>
@@ -4382,8 +4451,11 @@
       <c r="C174" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D174" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>175</v>
       </c>
@@ -4393,8 +4465,11 @@
       <c r="C175" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D175" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>176</v>
       </c>
@@ -4404,8 +4479,11 @@
       <c r="C176" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D176" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>177</v>
       </c>
@@ -4415,8 +4493,11 @@
       <c r="C177" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D177" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>178</v>
       </c>
@@ -4426,8 +4507,11 @@
       <c r="C178" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D178" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>179</v>
       </c>
@@ -4437,8 +4521,11 @@
       <c r="C179" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D179" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>180</v>
       </c>
@@ -4448,8 +4535,11 @@
       <c r="C180" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D180" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>181</v>
       </c>
@@ -4459,8 +4549,11 @@
       <c r="C181" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D181" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>182</v>
       </c>
@@ -4470,8 +4563,11 @@
       <c r="C182" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D182" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>183</v>
       </c>
@@ -4481,8 +4577,11 @@
       <c r="C183" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D183" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>184</v>
       </c>
@@ -4492,8 +4591,11 @@
       <c r="C184" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D184" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>185</v>
       </c>
@@ -4503,8 +4605,11 @@
       <c r="C185" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D185" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>186</v>
       </c>
@@ -4514,8 +4619,11 @@
       <c r="C186" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D186" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>187</v>
       </c>
@@ -4525,8 +4633,11 @@
       <c r="C187" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D187" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>188</v>
       </c>
@@ -4536,8 +4647,11 @@
       <c r="C188" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D188" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>189</v>
       </c>
@@ -4547,8 +4661,11 @@
       <c r="C189" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D189" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>190</v>
       </c>
@@ -4558,8 +4675,11 @@
       <c r="C190" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D190" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>191</v>
       </c>
@@ -4569,8 +4689,11 @@
       <c r="C191" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D191" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>192</v>
       </c>
@@ -4580,8 +4703,11 @@
       <c r="C192" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D192" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>193</v>
       </c>
@@ -4591,8 +4717,11 @@
       <c r="C193" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D193" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>194</v>
       </c>
@@ -4602,8 +4731,11 @@
       <c r="C194" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D194" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>195</v>
       </c>
@@ -4613,8 +4745,11 @@
       <c r="C195" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D195" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>196</v>
       </c>
@@ -4624,8 +4759,11 @@
       <c r="C196" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D196" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>197</v>
       </c>
@@ -4635,8 +4773,11 @@
       <c r="C197" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D197" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>198</v>
       </c>
@@ -4646,8 +4787,11 @@
       <c r="C198" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D198" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>199</v>
       </c>
@@ -4657,8 +4801,11 @@
       <c r="C199" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D199" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>200</v>
       </c>
@@ -4667,6 +4814,9 @@
       </c>
       <c r="C200" t="s">
         <v>369</v>
+      </c>
+      <c r="D200" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/venv/assets/postsArabic.xlsx
+++ b/venv/assets/postsArabic.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ask-Banky-Classifier\venv\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97C71C4-47FB-4590-9A49-F4E2A338A112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25450F59-8B6E-485F-B63F-B7592361B456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="postsArabic" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">postsArabic!$D$1:$D$201</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="384">
   <si>
     <t>يوم الخميس اللي فات البنك المركزي خفض الفائدة 0.5% ↙️ وبالتالي البنوك بدأت تنفيذ القرار وتخفيض الفائدة على المنتجات البنكية 🏛 واللي منها الشهادات 📃\n\nلو بتدور على أسعار الفوائد على الشهادات المتغيرة، هتلاقيهم في تقرير النهارده في 21 بنك، واللي من خلاله هتقارن وتوصل لأفضل اختيار😎\n📎https://bankygate.com/15099</t>
   </si>
@@ -1160,6 +1163,18 @@
   </si>
   <si>
     <t>معلومة</t>
+  </si>
+  <si>
+    <t>post_id</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>topic</t>
   </si>
 </sst>
 </file>
@@ -2008,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D200"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C190" workbookViewId="0">
-      <selection activeCell="E195" sqref="E195"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.3984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2023,126 +2038,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>380</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>382</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>370</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>371</v>
@@ -2150,13 +2165,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>371</v>
@@ -2164,167 +2179,167 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>370</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>2</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>371</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
         <v>370</v>
@@ -2332,139 +2347,139 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>2</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>370</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>2</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
         <v>2</v>
@@ -2472,111 +2487,111 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>370</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>2</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>376</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
         <v>375</v>
@@ -2584,139 +2599,139 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D49" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D50" t="s">
         <v>371</v>
@@ -2724,153 +2739,153 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D51" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D53" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D54" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D56" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D58" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D59" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D60" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D61" t="s">
         <v>373</v>
@@ -2878,13 +2893,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D62" t="s">
         <v>373</v>
@@ -2892,97 +2907,97 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D63" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D64" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D65" t="s">
-        <v>2</v>
+        <v>373</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D66" t="s">
-        <v>373</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D67" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D68" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D69" t="s">
         <v>373</v>
@@ -2990,13 +3005,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D70" t="s">
         <v>373</v>
@@ -3004,41 +3019,41 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D71" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="D72" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="D73" t="s">
         <v>370</v>
@@ -3046,27 +3061,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D74" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D75" t="s">
         <v>371</v>
@@ -3074,220 +3089,220 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D76" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D77" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D78" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D79" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="D80" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
-        <v>2</v>
+        <v>370</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D82" t="s">
-        <v>375</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D83" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C84" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D84" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D85" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C86" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="D86" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C87" t="s">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="D87" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="C88" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D88" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>89</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D89" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C90" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D90" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D91" t="s">
         <v>376</v>
@@ -3295,69 +3310,69 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D92" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="D93" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C94" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="D94" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D95" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C96" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D96" t="s">
         <v>371</v>
@@ -3365,55 +3380,55 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C97" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="D97" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C98" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="D98" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C99" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D99" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C100" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D100" t="s">
         <v>371</v>
@@ -3421,83 +3436,83 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C101" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D101" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C102" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="D102" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C103" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c r="D103" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C104" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D104" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C105" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D105" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C106" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D106" t="s">
         <v>371</v>
@@ -3505,27 +3520,27 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="D107" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C108" t="s">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="D108" t="s">
         <v>375</v>
@@ -3533,52 +3548,52 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C109" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D109" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D110" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C111" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D111" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C112" t="s">
         <v>211</v>
@@ -3589,69 +3604,69 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C113" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D113" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C114" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D114" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C115" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D115" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C116" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="D116" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C117" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="D117" t="s">
         <v>379</v>
@@ -3659,55 +3674,55 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C118" t="s">
-        <v>122</v>
+        <v>221</v>
       </c>
       <c r="D118" t="s">
-        <v>2</v>
+        <v>379</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C119" t="s">
-        <v>224</v>
+        <v>122</v>
       </c>
       <c r="D119" t="s">
-        <v>371</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C120" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D120" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C121" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D121" t="s">
         <v>375</v>
@@ -3715,24 +3730,24 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C122" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="D122" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C123" t="s">
         <v>112</v>
@@ -3743,111 +3758,111 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C124" t="s">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="D124" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C125" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D125" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C126" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D126" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C127" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D127" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C128" t="s">
-        <v>92</v>
+        <v>238</v>
       </c>
       <c r="D128" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C129" t="s">
-        <v>241</v>
+        <v>92</v>
       </c>
       <c r="D129" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C130" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="D130" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C131" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="D131" t="s">
         <v>375</v>
@@ -3855,69 +3870,69 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C132" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="D132" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C133" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="D133" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C134" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="D134" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C135" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="D135" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C136" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D136" t="s">
         <v>371</v>
@@ -3925,13 +3940,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C137" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D137" t="s">
         <v>371</v>
@@ -3939,13 +3954,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C138" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D138" t="s">
         <v>371</v>
@@ -3953,69 +3968,69 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C139" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="D139" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C140" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="D140" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C141" t="s">
-        <v>112</v>
+        <v>259</v>
       </c>
       <c r="D141" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C142" t="s">
-        <v>262</v>
+        <v>112</v>
       </c>
       <c r="D142" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C143" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D143" t="s">
         <v>375</v>
@@ -4023,237 +4038,237 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C144" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D144" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C145" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D145" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C146" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D146" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C147" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D147" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C148" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D148" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="C149" t="s">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="D149" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>276</v>
+        <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C151" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D151" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C152" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D152" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C153" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="D153" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C154" t="s">
-        <v>283</v>
+        <v>159</v>
       </c>
       <c r="D154" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C155" t="s">
-        <v>1</v>
+        <v>283</v>
       </c>
       <c r="D155" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C156" t="s">
-        <v>286</v>
+        <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C157" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D157" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C158" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D158" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C159" t="s">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="D159" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C160" t="s">
-        <v>293</v>
+        <v>38</v>
       </c>
       <c r="D160" t="s">
         <v>379</v>
@@ -4261,83 +4276,83 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C161" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D161" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C162" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D162" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C163" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D163" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C164" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D164" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C165" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D165" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C166" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D166" t="s">
         <v>375</v>
@@ -4345,41 +4360,41 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C167" t="s">
-        <v>38</v>
+        <v>305</v>
       </c>
       <c r="D167" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C168" t="s">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="D168" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C169" t="s">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="D169" t="s">
         <v>371</v>
@@ -4387,13 +4402,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C170" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D170" t="s">
         <v>371</v>
@@ -4401,83 +4416,83 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C171" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D171" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C172" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D172" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C173" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D173" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C174" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D174" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C175" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D175" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C176" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D176" t="s">
         <v>371</v>
@@ -4485,13 +4500,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C177" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D177" t="s">
         <v>371</v>
@@ -4499,69 +4514,69 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C178" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D178" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C179" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D179" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C180" t="s">
-        <v>4</v>
+        <v>329</v>
       </c>
       <c r="D180" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C181" t="s">
-        <v>332</v>
+        <v>4</v>
       </c>
       <c r="D181" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C182" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D182" t="s">
         <v>371</v>
@@ -4569,13 +4584,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C183" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D183" t="s">
         <v>371</v>
@@ -4583,41 +4598,41 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C184" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D184" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C185" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D185" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C186" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D186" t="s">
         <v>371</v>
@@ -4625,27 +4640,27 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C187" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D187" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C188" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D188" t="s">
         <v>374</v>
@@ -4653,41 +4668,41 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C189" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D189" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C190" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D190" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C191" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D191" t="s">
         <v>371</v>
@@ -4695,131 +4710,146 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C192" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D192" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C193" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D193" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C194" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="D194" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C195" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="D195" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C196" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D196" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C197" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D197" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C198" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D198" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C199" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D199" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C200" t="s">
+        <v>367</v>
+      </c>
+      <c r="D200" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
         <v>200</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C201" t="s">
         <v>369</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D201" t="s">
         <v>375</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D201" xr:uid="{81BE812B-0EDA-4B7D-8F75-927B0009C2C7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>